--- a/steps.xlsx
+++ b/steps.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\C3EZ\Desktop\自动化识别脚本\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E6F34CC-55C6-45F3-82DC-AE6715F6D6BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6604524F-F66A-4B5B-9D52-37A36AEEA346}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5460" yWindow="0" windowWidth="16140" windowHeight="9285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -399,7 +399,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
